--- a/biology/Zoologie/Chirogale/Chirogale.xlsx
+++ b/biology/Zoologie/Chirogale/Chirogale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -514,7 +526,9 @@
           <t>Biologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des chirogales sont celles des Lemuriformes, avec des différences pour chaque espèce : voir les articles détaillés pour plus d'informations, notamment sur leur constitution physique ou leur mode de vie respectif.
 </t>
@@ -545,18 +559,20 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[1] en français. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. 
-Chirogale à oreilles velues ou velue - Allocebus trichotis[2],[3]
+Chirogale à oreilles velues ou velue - Allocebus trichotis,
 Chirogale à queue grasse - voir Chirogale moyen
-Chirogale intermédiaire - voir Chirogale moyen[2]
-Chirogale mignon - Microcebus murinus[3]
-Chirogale de Milius - voir Grand chirogale[2],[3]
-Chirogale moyen - Cheirogaleus medius[2]
-Grand chirogale - Cheirogaleus major[3]
-Petit chirogale - voir Chirogale moyen[2]</t>
+Chirogale intermédiaire - voir Chirogale moyen
+Chirogale mignon - Microcebus murinus
+Chirogale de Milius - voir Grand chirogale,
+Chirogale moyen - Cheirogaleus medius
+Grand chirogale - Cheirogaleus major
+Petit chirogale - voir Chirogale moyen</t>
         </is>
       </c>
     </row>
